--- a/biology/Zoologie/Bibio_spectabilis/Bibio_spectabilis.xlsx
+++ b/biology/Zoologie/Bibio_spectabilis/Bibio_spectabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bibio spectabilis est une espèce fossile d'insectes diptères de la sous-famille des Bibioninae (famille des Bibionidae).
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Bibio spectabilis est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[1],[2]. 
-Fossiles
-L'holotype A 36 ♀, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) vient des terrains d'Aix-en-Provence dans les Bouches-du-Rhône (marnes calcaires séparant des bancs de gypse), et des collections de l'Institut géologique de Lyon. Il y a aussi un cotype A 96 de même provenance et un échantillon Am 78 du Muséum de Paris[3].
-Confirmation du genre
-En 2017John Skartveit et André Nel confirment l'appartenance de cette espèce au genre Bibio[4],[2]
-Étymologie
-L'épithète spécifique spectabilis signifie en latin « spectabulaire ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bibio spectabilis est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981),. 
 </t>
         </is>
       </c>
@@ -545,17 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 1] : ce diptère bibion est un « insecte noir, ailes foncées atteignant exactement l'extrémité de l'abdomen. Tête sphérique, thorax ovale presque aussi large que long; suture transversale peu marquée, scutellum petit. Abdomen allongé, un peu plus large que le thorax, forme ovoïde, maximum de largeur dans la moitié antérieure. Pattes velues, assez fortes. Balanciers à longue tige, massue en forme d'haltères. Ailes grandes, bord antérieur presque droit jusqu'au quart externe, sommet arrondi, stigma noir assez long, nervation du type Bibio (v. fig.). ».[1].
-Dimensions
-La longueur totale est de 10,5 mm ; la tête a une longueur de 1 mm ; le thorax a une longueur de 2,75 mm et une largeur de 2,25 mm ; l'abdomen a une longueur de 6,25 mm et une largeur de 2,5 mm ; les ailes ont une longueur de 7,5 mm et une largeur de 3 mm[1].
-Affinités
-Cette espèce est voisine du Bibio moestus Heer, cité à Aix, mais sans figurer aucun exemplaire. Heer attribue à Bibio moestus des ailes qui semblent transparentes. Mais ici les ailes portent encore par endroits des taches noires provenant de restes de matière organique[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype A 36 ♀, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) vient des terrains d'Aix-en-Provence dans les Bouches-du-Rhône (marnes calcaires séparant des bancs de gypse), et des collections de l'Institut géologique de Lyon. Il y a aussi un cotype A 96 de même provenance et un échantillon Am 78 du Muséum de Paris.
 </t>
         </is>
       </c>
@@ -581,14 +590,201 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation du genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017John Skartveit et André Nel confirment l'appartenance de cette espèce au genre Bibio,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bibio_spectabilis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_spectabilis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique spectabilis signifie en latin « spectabulaire ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bibio_spectabilis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_spectabilis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : ce diptère bibion est un « insecte noir, ailes foncées atteignant exactement l'extrémité de l'abdomen. Tête sphérique, thorax ovale presque aussi large que long; suture transversale peu marquée, scutellum petit. Abdomen allongé, un peu plus large que le thorax, forme ovoïde, maximum de largeur dans la moitié antérieure. Pattes velues, assez fortes. Balanciers à longue tige, massue en forme d'haltères. Ailes grandes, bord antérieur presque droit jusqu'au quart externe, sommet arrondi, stigma noir assez long, nervation du type Bibio (v. fig.). »..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bibio_spectabilis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_spectabilis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 10,5 mm ; la tête a une longueur de 1 mm ; le thorax a une longueur de 2,75 mm et une largeur de 2,25 mm ; l'abdomen a une longueur de 6,25 mm et une largeur de 2,5 mm ; les ailes ont une longueur de 7,5 mm et une largeur de 3 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bibio_spectabilis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_spectabilis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est voisine du Bibio moestus Heer, cité à Aix, mais sans figurer aucun exemplaire. Heer attribue à Bibio moestus des ailes qui semblent transparentes. Mais ici les ailes portent encore par endroits des taches noires provenant de restes de matière organique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bibio_spectabilis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_spectabilis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Le g. Bibio est universellement répandu. Il vit sur les plantes ; les larves se développent dans la terre, dans les déchets des animaux ou dans les débris végétaux. »[5].
-Les Bibionidés sont parmi les insectes autochtones caractéristiques de la station. Leurs larves sont aquatiques ; ils vivent dans des forêts marécageuses d'eaux douces[6]. Les conditions de vie ont dû être semblables à celles des forêts-galeries actuelles des grands fleuves d'Afrique ou d'Amérique du Sud[7]. Des chapelets de lacs et de lagunes s'étendent en bordure des mers oligocènes[8].
-La subsidence du milieu a permis un ensevelissement rapide des insectes qui n'ont pas été exposés longtemps aux agents atmosphériques, ce qui a permis la conservation de leurs teintes. Il est possible qu'ils aient été asphyxiés par des émissions volcaniques du volcan de Beaulieu[9],[10].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Le g. Bibio est universellement répandu. Il vit sur les plantes ; les larves se développent dans la terre, dans les déchets des animaux ou dans les débris végétaux. ».
+Les Bibionidés sont parmi les insectes autochtones caractéristiques de la station. Leurs larves sont aquatiques ; ils vivent dans des forêts marécageuses d'eaux douces. Les conditions de vie ont dû être semblables à celles des forêts-galeries actuelles des grands fleuves d'Afrique ou d'Amérique du Sud. Des chapelets de lacs et de lagunes s'étendent en bordure des mers oligocènes.
+La subsidence du milieu a permis un ensevelissement rapide des insectes qui n'ont pas été exposés longtemps aux agents atmosphériques, ce qui a permis la conservation de leurs teintes. Il est possible qu'ils aient été asphyxiés par des émissions volcaniques du volcan de Beaulieu,.
 </t>
         </is>
       </c>
